--- a/anextour parser/results/new/kc_ans_alt.xlsx
+++ b/anextour parser/results/new/kc_ans_alt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dipl\anextour parser\results\new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\kivanov\diplomat\anextour parser\results\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99842E68-B4DD-4EE2-9E92-51AB1582221E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048B81E3-F5C5-4105-BDB6-D1B2797E1658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4455" yWindow="2115" windowWidth="36780" windowHeight="16425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="26655" windowHeight="16425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
     <t>[90, 123, 149, 190]</t>
   </si>
   <si>
-    <t>[89, 123, np.int64(149), np.int64(190), np.int64(90), np.int64(123), np.int64(123), np.int64(58), np.int64(156), np.int64(90)]</t>
+    <t>[123, 89, 190, np.int64(149), np.int64(190), np.int64(90), np.int64(123), np.int64(123), np.int64(58), np.int64(156)]</t>
   </si>
   <si>
     <t>1</t>
@@ -91,7 +91,7 @@
     <t>Какова длина "Висячего камня" в парке Ергаки?</t>
   </si>
   <si>
-    <t>[123, 89, np.int64(123), np.int64(151), np.int64(58), np.int64(89), np.int64(156), np.int64(90), np.int64(149), np.int64(190)]</t>
+    <t>[123, 89, 47, np.int64(123), np.int64(151), np.int64(58), np.int64(89), np.int64(156), np.int64(90), np.int64(149)]</t>
   </si>
   <si>
     <t>2</t>
@@ -103,7 +103,7 @@
     <t>[47, 48, 89, 90, 147, 151]</t>
   </si>
   <si>
-    <t>[147, 89, np.int64(90), np.int64(48), np.int64(149), np.int64(47), np.int64(47), np.int64(149), np.int64(147), np.int64(9)]</t>
+    <t>[147, 89, 90, np.int64(48), np.int64(149), np.int64(47), np.int64(47), np.int64(149), np.int64(147), np.int64(9)]</t>
   </si>
   <si>
     <t>3</t>
@@ -115,7 +115,7 @@
     <t>[33]</t>
   </si>
   <si>
-    <t>[33, 34, np.int64(31), np.int64(76), np.int64(74), np.int64(72), np.int64(79), np.int64(87), np.int64(88), np.int64(218)]</t>
+    <t>[33, np.int64(31), np.int64(76), np.int64(74), np.int64(72), np.int64(79), np.int64(87), np.int64(88), np.int64(218)]</t>
   </si>
   <si>
     <t>4</t>
@@ -127,7 +127,7 @@
     <t>[39]</t>
   </si>
   <si>
-    <t>[155, 18, np.int64(39), np.int64(155), np.int64(47), np.int64(182), np.int64(213), np.int64(58), np.int64(118), np.int64(127)]</t>
+    <t>[155, np.int64(39), np.int64(18), np.int64(155), np.int64(47), np.int64(182), np.int64(213), np.int64(58), np.int64(118), np.int64(127)]</t>
   </si>
   <si>
     <t>5</t>
@@ -139,7 +139,7 @@
     <t>[30, 31]</t>
   </si>
   <si>
-    <t>[93, 141, np.int64(30), np.int64(29), np.int64(193), np.int64(192), np.int64(218), np.int64(157), np.int64(158), np.int64(193)]</t>
+    <t>[93, 141, 96, np.int64(30), np.int64(29), np.int64(193), np.int64(192), np.int64(218), np.int64(157), np.int64(158)]</t>
   </si>
   <si>
     <t>6</t>
@@ -151,7 +151,7 @@
     <t>[41]</t>
   </si>
   <si>
-    <t>[41, 56, np.int64(181), np.int64(184), np.int64(163), np.int64(212), np.int64(118), np.int64(2), np.int64(225), np.int64(115)]</t>
+    <t>[41, 124, 56, np.int64(181), np.int64(184), np.int64(163), np.int64(212), np.int64(118), np.int64(2), np.int64(225)]</t>
   </si>
   <si>
     <t>7</t>
@@ -160,7 +160,7 @@
     <t>Сколько бухт посещают во время экскурсии "Семь чудес Чивыркуйского залива"?</t>
   </si>
   <si>
-    <t>[41, 56, np.int64(180), np.int64(213), np.int64(182), np.int64(182), np.int64(126), np.int64(212), np.int64(5), np.int64(174)]</t>
+    <t>[41, 56, 182, np.int64(180), np.int64(213), np.int64(182), np.int64(126), np.int64(212), np.int64(5), np.int64(174)]</t>
   </si>
   <si>
     <t>8</t>
@@ -172,7 +172,7 @@
     <t>[9, 58, 156]</t>
   </si>
   <si>
-    <t>[85, 134, np.int64(156), np.int64(114), np.int64(108), np.int64(109), np.int64(82), np.int64(205), np.int64(163), np.int64(9)]</t>
+    <t>[85, 134, 82, np.int64(156), np.int64(114), np.int64(108), np.int64(109), np.int64(82), np.int64(205), np.int64(163)]</t>
   </si>
   <si>
     <t>9</t>
@@ -184,7 +184,7 @@
     <t>[15]</t>
   </si>
   <si>
-    <t>[15, 204, np.int64(15), np.int64(223), np.int64(209), np.int64(182), np.int64(41), np.int64(206), np.int64(176), np.int64(166)]</t>
+    <t>[15, np.int64(15), np.int64(223), np.int64(209), np.int64(182), np.int64(41), np.int64(206), np.int64(176), np.int64(166), np.int64(187)]</t>
   </si>
   <si>
     <t>Где хранится самый большой печатный Коран в мире, хранящийся в Болгаре?</t>
@@ -193,7 +193,7 @@
     <t>[12, 13, 16, 17, 18]</t>
   </si>
   <si>
-    <t>[13, 17, np.int64(28), np.int64(18), np.int64(12), np.int64(142)]</t>
+    <t>[13, 12, 17, np.int64(23), np.int64(16), np.int64(142)]</t>
   </si>
   <si>
     <t>Какой минерал является гордостью Карелии</t>
@@ -202,7 +202,7 @@
     <t>[9, 156]</t>
   </si>
   <si>
-    <t>[9, 156, np.int64(22), np.int64(9), np.int64(156), np.int64(156), np.int64(42), np.int64(194), np.int64(42), np.int64(7)]</t>
+    <t>[9, 156, np.int64(21), np.int64(9), np.int64(156), np.int64(156), np.int64(42), np.int64(194), np.int64(42), np.int64(7)]</t>
   </si>
   <si>
     <t>Какой тип пения демонстрируют в Тувинском национальном музыкальном центре?</t>
@@ -211,7 +211,7 @@
     <t>[45, 90, 123, 149, 150]</t>
   </si>
   <si>
-    <t>[45, 150, np.int64(16), np.int64(17), np.int64(123), np.int64(149), np.int64(18), np.int64(20), np.int64(19)]</t>
+    <t>[45, 149, 150, np.int64(16), np.int64(17), np.int64(123), np.int64(18), np.int64(20), np.int64(19)]</t>
   </si>
   <si>
     <t>Какой напиток предлагают гостям в усадьбе Бюргера в Выборге?</t>
@@ -220,7 +220,7 @@
     <t>[8]</t>
   </si>
   <si>
-    <t>[8, 8, np.int64(99), np.int64(99), np.int64(105), np.int64(104), np.int64(137), np.int64(123), np.int64(90), np.int64(45)]</t>
+    <t>[8, 99, 8, np.int64(99), np.int64(105), np.int64(104), np.int64(137), np.int64(123), np.int64(90), np.int64(45)]</t>
   </si>
   <si>
     <t>Как называется традиционная тувинская выпечка, которую подают на ужине?</t>
@@ -229,19 +229,19 @@
     <t>[45, 90, 149, 150]</t>
   </si>
   <si>
-    <t>[150, 45, np.int64(153), np.int64(15), np.int64(149), np.int64(147), np.int64(223), np.int64(89), np.int64(93)]</t>
+    <t>[150, 45, 90, np.int64(149), np.int64(147), np.int64(223), np.int64(89), np.int64(93), np.int64(183), np.int64(138)]</t>
   </si>
   <si>
     <t>Как называется традиционная бурятская еда, которую подают в Тункинской долине?</t>
   </si>
   <si>
-    <t>[47, 149, np.int64(155), np.int64(15), np.int64(42), np.int64(183), np.int64(223), np.int64(191), np.int64(89)]</t>
+    <t>[42, 149, 150, np.int64(183), np.int64(223), np.int64(191), np.int64(89), np.int64(93), np.int64(147), np.int64(193)]</t>
   </si>
   <si>
     <t>Как называется место в Хакасии, где можно увидеть след Будды?</t>
   </si>
   <si>
-    <t>[149, 47, np.int64(15), np.int64(123), np.int64(150), np.int64(90), np.int64(45), np.int64(147), np.int64(89), np.int64(223)]</t>
+    <t>[149, 47, 90, np.int64(147), np.int64(123), np.int64(150), np.int64(90), np.int64(45), np.int64(89), np.int64(223)]</t>
   </si>
   <si>
     <t>Какое поэтическое название используют для Телецкого озера в описаниях туров?</t>
@@ -250,7 +250,7 @@
     <t>[29, 30, 31, 92, 93, 94, 159, 194, 215, 216, 218]</t>
   </si>
   <si>
-    <t>[216, np.int64(159), np.int64(171), np.int64(5), np.int64(93), np.int64(224), np.int64(225), np.int64(9)]</t>
+    <t>[215, 93, np.int64(159), np.int64(171), np.int64(5), np.int64(93), np.int64(224), np.int64(225), np.int64(9)]</t>
   </si>
   <si>
     <t>Какая из буддийских ступ расположена на острове Огой?</t>
@@ -259,13 +259,13 @@
     <t>[57, 120, 124, 185]</t>
   </si>
   <si>
-    <t>[50, 175, np.int64(122), np.int64(121), np.int64(69), np.int64(137), np.int64(51), np.int64(121), np.int64(138), np.int64(138)]</t>
+    <t>[50, 175, 122, np.int64(121), np.int64(69), np.int64(137), np.int64(51), np.int64(121), np.int64(138), np.int64(138)]</t>
   </si>
   <si>
     <t>Какой уникальный архитектурный стиль характеризует библиотеку Алвара Аалто в Выборге?</t>
   </si>
   <si>
-    <t>[8, 99, np.int64(8), np.int64(155), np.int64(18), np.int64(39), np.int64(11), np.int64(15), np.int64(54), np.int64(126)]</t>
+    <t>[8, 99, 8, np.int64(155), np.int64(18), np.int64(39), np.int64(11), np.int64(15), np.int64(54), np.int64(126)]</t>
   </si>
   <si>
     <t>Какие два моста являются символами Владивостока?</t>
@@ -274,7 +274,7 @@
     <t>[46, 118, 119, 182, 183, 184, 196, 212, 213, 214]</t>
   </si>
   <si>
-    <t>[183, 119, np.int64(182), np.int64(212), np.int64(214), np.int64(212), np.int64(119), np.int64(15), np.int64(147), np.int64(51)]</t>
+    <t>[183, 119, 213, np.int64(182), np.int64(212), np.int64(214), np.int64(212), np.int64(119), np.int64(147), np.int64(184)]</t>
   </si>
   <si>
     <t>Какие залы можно осмотреть в Храме всех религий?</t>
@@ -283,7 +283,7 @@
     <t>[13, 39, 40, 54, 55, 152, 153, 154, 155]</t>
   </si>
   <si>
-    <t>[54, 40, np.int64(191), np.int64(108), np.int64(13), np.int64(5), np.int64(15), np.int64(36), np.int64(99)]</t>
+    <t>[231, np.int64(55), np.int64(54), np.int64(108), np.int64(13), np.int64(5), np.int64(36), np.int64(99), np.int64(112), np.int64(51)]</t>
   </si>
   <si>
     <t>Блюда из каких виды морских обитателей дегустируют во Владивостоке?</t>
@@ -292,7 +292,7 @@
     <t>[46, 196, 212, 213]</t>
   </si>
   <si>
-    <t>[46, 196, np.int64(224), np.int64(184), np.int64(183), np.int64(139), np.int64(170), np.int64(213), np.int64(196), np.int64(50)]</t>
+    <t>[46, 213, 196, np.int64(171), np.int64(117), np.int64(184), np.int64(183), np.int64(139), np.int64(170), np.int64(213)]</t>
   </si>
   <si>
     <t>Какие животные обитают в сафари-парке Шкотово?</t>
@@ -301,7 +301,7 @@
     <t>[46, 118, 119, 214]</t>
   </si>
   <si>
-    <t>[214, 119, np.int64(165), np.int64(178), np.int64(196), np.int64(15), np.int64(214), np.int64(50), np.int64(46), np.int64(175)]</t>
+    <t>[214, 119, 46, np.int64(165), np.int64(178), np.int64(196), np.int64(214), np.int64(46), np.int64(119), np.int64(123)]</t>
   </si>
   <si>
     <t>Что чаще всего посещают во время экскурсии в Царское Село?</t>
@@ -310,7 +310,7 @@
     <t>[3, 4, 6, 7, 27, 28, 44, 201]</t>
   </si>
   <si>
-    <t>[0, 3, np.int64(28), np.int64(6), np.int64(44), np.int64(201), np.int64(4), np.int64(88), np.int64(7), np.int64(28)]</t>
+    <t>[3, 0, 44, np.int64(28), np.int64(6), np.int64(201), np.int64(4), np.int64(88), np.int64(7), np.int64(28)]</t>
   </si>
   <si>
     <t>Что включает в себя экскурсия в Эрмитаж?</t>
@@ -319,7 +319,7 @@
     <t>[2, 3, 4, 5, 6, 7, 28, 44, 99, 125, 201]</t>
   </si>
   <si>
-    <t>[201, 125, np.int64(7), np.int64(201), np.int64(3), np.int64(28), np.int64(120), np.int64(44), np.int64(3), np.int64(4)]</t>
+    <t>[3, 201, 28, np.int64(7), np.int64(201), np.int64(3), np.int64(120), np.int64(44), np.int64(4), np.int64(5)]</t>
   </si>
   <si>
     <t>Какие объекты посещают во время экскурсии по Свияжску?</t>
@@ -328,7 +328,7 @@
     <t>[10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 40, 54, 55, 152, 153, 154, 155]</t>
   </si>
   <si>
-    <t>[16, np.int64(30), np.int64(51), np.int64(191), np.int64(175), np.int64(15), np.int64(50), np.int64(9), np.int64(68)]</t>
+    <t>[10, np.int64(30), np.int64(155), np.int64(175), np.int64(9), np.int64(68), np.int64(128)]</t>
   </si>
   <si>
     <t>Какие сувениры можно приобрести в Йошкар-Оле?</t>
@@ -337,7 +337,7 @@
     <t>[16, 17, 18, 19, 20]</t>
   </si>
   <si>
-    <t>[204, 17, np.int64(30), np.int64(113), np.int64(218), np.int64(127), np.int64(217), np.int64(56), np.int64(47), np.int64(61)]</t>
+    <t>[16, 17, np.int64(30), np.int64(113), np.int64(218), np.int64(127), np.int64(217), np.int64(56), np.int64(47), np.int64(61)]</t>
   </si>
   <si>
     <t>на что можно посмотреть в Кунсткамере?</t>
@@ -346,7 +346,7 @@
     <t>[23, 24, 25, 26, 27, 28]</t>
   </si>
   <si>
-    <t>[15, 1, np.int64(223), np.int64(138), np.int64(45), np.int64(170), np.int64(67), np.int64(197), np.int64(59), np.int64(31)]</t>
+    <t>[15, np.int64(59), np.int64(67), np.int64(45), np.int64(170), np.int64(223), np.int64(138), np.int64(197), np.int64(225), np.int64(3)]</t>
   </si>
   <si>
     <t>Как называются постройки на острове Кижи?</t>
@@ -355,7 +355,7 @@
     <t>[44]</t>
   </si>
   <si>
-    <t>[223, 142, np.int64(153), np.int64(14), np.int64(44), np.int64(44), np.int64(197), np.int64(5), np.int64(15)]</t>
+    <t>[44, np.int64(44), np.int64(197), np.int64(5), np.int64(142), np.int64(95), np.int64(97), np.int64(126), np.int64(98), np.int64(213)]</t>
   </si>
   <si>
     <t>хочу тур по культурной столице России, с посещением окрестных достопримечательностей</t>
@@ -364,7 +364,7 @@
     <t>[2, 3, 4, 5, 6, 7, 8, 23, 24, 25, 26, 27, 28, 125, 126, 201]</t>
   </si>
   <si>
-    <t>[0, 0, np.int64(117), np.int64(33), np.int64(126), np.int64(43), np.int64(111), np.int64(194), np.int64(197)]</t>
+    <t>[0, 0, 44, np.int64(117), np.int64(33), np.int64(126), np.int64(43), np.int64(111), np.int64(194), np.int64(197)]</t>
   </si>
   <si>
     <t>Интересует тур в один из древнейших городов России, связанный имуществом родителей величайшего поэтв золотого века российской литературы</t>
@@ -373,7 +373,7 @@
     <t>[100, 101, 102, 103, 104, 105, 106, 107]</t>
   </si>
   <si>
-    <t>[109, 111, np.int64(109), np.int64(115), np.int64(43), np.int64(164), np.int64(116)]</t>
+    <t>[109, 103, 101, np.int64(109), np.int64(115), np.int64(43), np.int64(164), np.int64(116)]</t>
   </si>
   <si>
     <t>тур по северо-западу России, с посещением мест, где река с грохотом обрушивается вниз, старинного курорта с целебными источниками и обзорной экскурсией по столице региона.</t>
@@ -382,13 +382,13 @@
     <t>[9, 44, 58, 156, 201]</t>
   </si>
   <si>
-    <t>[9, np.int64(16), np.int64(6), np.int64(126), np.int64(113), np.int64(42), np.int64(56), np.int64(126), np.int64(12), np.int64(33)]</t>
+    <t>[9, 218, np.int64(18), np.int64(6), np.int64(126), np.int64(113), np.int64(42), np.int64(56), np.int64(126), np.int64(12)]</t>
   </si>
   <si>
     <t>Ищу тур по главному городу Приморья с обзорной экскурсией по центру и парку дикой природы с дальневосточными животными</t>
   </si>
   <si>
-    <t>[196, 46, np.int64(0), np.int64(126), np.int64(118), np.int64(174), np.int64(116), np.int64(199), np.int64(99), np.int64(213)]</t>
+    <t>[46, 196, 119, np.int64(0), np.int64(126), np.int64(118), np.int64(174), np.int64(116), np.int64(199), np.int64(99)]</t>
   </si>
   <si>
     <t>тур по столице России, включающий в себя наиболее популярные достопримечательности</t>
@@ -397,13 +397,13 @@
     <t>[0, 1]</t>
   </si>
   <si>
-    <t>[0, 0, np.int64(153), np.int64(43), np.int64(10), np.int64(11), np.int64(126), np.int64(174), np.int64(127), np.int64(25)]</t>
+    <t>[0, 0, 0, np.int64(152), np.int64(25), np.int64(10), np.int64(11), np.int64(126), np.int64(127)]</t>
   </si>
   <si>
     <t>тур по северо-западу России, по местам добычи минералов, известных своими целебными свойствами</t>
   </si>
   <si>
-    <t>[156, 9, np.int64(43), np.int64(199), np.int64(174), np.int64(41), np.int64(166), np.int64(175), np.int64(50), np.int64(191)]</t>
+    <t>[9, 156, 47, np.int64(199), np.int64(41), np.int64(166), np.int64(175), np.int64(50), np.int64(191), np.int64(191)]</t>
   </si>
   <si>
     <t>тур по заполярью России, с возможностью посмотреть на  морских животных</t>
@@ -412,7 +412,7 @@
     <t>[172, 173, 174, 176, 189]</t>
   </si>
   <si>
-    <t>[176, 189, np.int64(171), np.int64(43), np.int64(174), np.int64(99), np.int64(185), np.int64(170), np.int64(126), np.int64(190)]</t>
+    <t>[176, 189, 176, np.int64(224), np.int64(99), np.int64(185), np.int64(170), np.int64(126), np.int64(190), np.int64(16)]</t>
   </si>
   <si>
     <t>тур на полуостров вулканов, включающий посещение горных массивов, а также различных водных объектов</t>
@@ -421,7 +421,7 @@
     <t>[198, 199, 200]</t>
   </si>
   <si>
-    <t>[200, 199, np.int64(43), np.int64(42), np.int64(58), np.int64(174), np.int64(148), np.int64(213), np.int64(199), np.int64(182)]</t>
+    <t>[257, 200, 225, np.int64(42), np.int64(58), np.int64(148), np.int64(213), np.int64(199), np.int64(182), np.int64(117)]</t>
   </si>
   <si>
     <t>тур по крупнейшему острову России в Тихом океане, с посещением живописных прибрежных зон и природных объектов</t>
@@ -430,7 +430,7 @@
     <t>[168, 169, 170, 171, 225, 224]</t>
   </si>
   <si>
-    <t>[198, 199, np.int64(181), np.int64(6), np.int64(126), np.int64(43), np.int64(174), np.int64(194), np.int64(58), np.int64(150)]</t>
+    <t>[198, 225, 199, np.int64(180), np.int64(6), np.int64(126), np.int64(194), np.int64(58), np.int64(150), np.int64(56)]</t>
   </si>
   <si>
     <t>поездка в регион России, расположенный на островах в Тихом океане, с посещением побережья одного из морей Дальнего Востока и оздоровительных термальных источников на одном из островов архипелага.</t>
@@ -439,7 +439,7 @@
     <t>[171, 225, 224]</t>
   </si>
   <si>
-    <t>[184, 171, np.int64(9), np.int64(41), np.int64(182), np.int64(213), np.int64(108), np.int64(224), np.int64(171), np.int64(115)]</t>
+    <t>[184, 170, 171, np.int64(58), np.int64(41), np.int64(182), np.int64(213), np.int64(108), np.int64(115), np.int64(185)]</t>
   </si>
   <si>
     <t>10</t>
@@ -451,7 +451,7 @@
     <t>[160, 161, 162]</t>
   </si>
   <si>
-    <t>[134, 180, np.int64(161), np.int64(134), np.int64(174), np.int64(187), np.int64(214), np.int64(43), np.int64(215), np.int64(216)]</t>
+    <t>[181, 180, 82, np.int64(161), np.int64(134), np.int64(174), np.int64(187), np.int64(214), np.int64(43), np.int64(215)]</t>
   </si>
   <si>
     <t>11</t>
@@ -463,7 +463,7 @@
     <t>[32, 33, 34, 35, 128, 129, 130, 131, 132, 180, 181, 211]</t>
   </si>
   <si>
-    <t>[129, np.int64(6), np.int64(116), np.int64(43), np.int64(51), np.int64(106), np.int64(107), np.int64(99), np.int64(175), np.int64(109)]</t>
+    <t>[128, np.int64(6), np.int64(116), np.int64(43), np.int64(51), np.int64(106), np.int64(107), np.int64(99), np.int64(175), np.int64(109)]</t>
   </si>
   <si>
     <t>12</t>
@@ -475,7 +475,7 @@
     <t>[108, 109, 110, 111, 112, 114, 115, 116, 117, 197]</t>
   </si>
   <si>
-    <t>[110, np.int64(16), np.int64(33), np.int64(149), np.int64(142), np.int64(174), np.int64(2), np.int64(58), np.int64(116), np.int64(17)]</t>
+    <t>[108, np.int64(16), np.int64(33), np.int64(149), np.int64(142), np.int64(2), np.int64(58), np.int64(116), np.int64(17), np.int64(28)]</t>
   </si>
   <si>
     <t>13</t>
@@ -487,7 +487,7 @@
     <t>[108, 109, 114]</t>
   </si>
   <si>
-    <t>[109, 111, np.int64(43), np.int64(174), np.int64(126), np.int64(142), np.int64(15), np.int64(39), np.int64(116), np.int64(224)]</t>
+    <t>[109, 111, 103, np.int64(126), np.int64(142), np.int64(15), np.int64(39), np.int64(116), np.int64(224), np.int64(171)]</t>
   </si>
   <si>
     <t>14</t>
@@ -499,7 +499,7 @@
     <t>[45, 47, 48, 59, 89, 90, 123, 147, 148, 149, 150, 151, 190]</t>
   </si>
   <si>
-    <t>[90, 123, np.int64(57), np.int64(43), np.int64(59), np.int64(9), np.int64(156), np.int64(130), np.int64(174), np.int64(104)]</t>
+    <t>[90, 123, 47, np.int64(57), np.int64(59), np.int64(9), np.int64(156), np.int64(130), np.int64(104), np.int64(131)]</t>
   </si>
   <si>
     <t>15</t>
@@ -511,7 +511,7 @@
     <t>[60, 61, 86, 127, 164, 177, 202, 210, 219, 220, 221, 222]</t>
   </si>
   <si>
-    <t>[86, 60, np.int64(224), np.int64(43), np.int64(170), np.int64(223), np.int64(56), np.int64(171), np.int64(164), np.int64(36)]</t>
+    <t>[236, 257, np.int64(224), np.int64(170), np.int64(223), np.int64(56), np.int64(171), np.int64(164), np.int64(36), np.int64(168)]</t>
   </si>
   <si>
     <t>16</t>
@@ -523,7 +523,7 @@
     <t>[36, 41, 42, 43, 49, 50, 51, 56, 57, 67, 68, 69, 113, 120, 121, 122, 124, 137, 138, 139, 142, 175, 185, 191, 195, 223]</t>
   </si>
   <si>
-    <t>[50, 49, np.int64(224), np.int64(170), np.int64(157), np.int64(104), np.int64(43), np.int64(105), np.int64(172), np.int64(174)]</t>
+    <t>[139, 120, 49, np.int64(224), np.int64(170), np.int64(157), np.int64(104), np.int64(43), np.int64(105), np.int64(172)]</t>
   </si>
   <si>
     <t>17</t>
@@ -535,7 +535,7 @@
     <t>[66, 72, 83, 86, 87, 135, 136, 145]</t>
   </si>
   <si>
-    <t>[135, 136, np.int64(72), np.int64(145), np.int64(60), np.int64(16), np.int64(20), np.int64(134), np.int64(87), np.int64(11)]</t>
+    <t>[136, 135, 21, np.int64(72), np.int64(145), np.int64(60), np.int64(16), np.int64(20), np.int64(134), np.int64(87)]</t>
   </si>
   <si>
     <t>18</t>
@@ -547,7 +547,7 @@
     <t>[62, 64, 65, 144, 163, 165, 179, 186, 187]</t>
   </si>
   <si>
-    <t>[62, 65, np.int64(102), np.int64(43), np.int64(106), np.int64(61), np.int64(107), np.int64(117), np.int64(103), np.int64(101)]</t>
+    <t>[65, 62, np.int64(102), np.int64(43), np.int64(106), np.int64(61), np.int64(107), np.int64(117), np.int64(103), np.int64(101)]</t>
   </si>
   <si>
     <t>19</t>
@@ -559,7 +559,7 @@
     <t>[65, 66, 72, 88, 133]</t>
   </si>
   <si>
-    <t>[88, np.int64(82), np.int64(134), np.int64(174), np.int64(166), np.int64(43), np.int64(72), np.int64(146), np.int64(21)]</t>
+    <t>[65, 63, 61, np.int64(88), np.int64(82), np.int64(134), np.int64(174), np.int64(166), np.int64(43), np.int64(72)]</t>
   </si>
   <si>
     <t>20</t>
@@ -568,7 +568,7 @@
     <t>тур по столице марийской республики, влючающая посещение площадей и набережных с возможностью попробовать местную кухню</t>
   </si>
   <si>
-    <t>[17, 20, np.int64(16), np.int64(134), np.int64(19), np.int64(5), np.int64(82), np.int64(3), np.int64(127), np.int64(20)]</t>
+    <t>[246, np.int64(16), np.int64(17), np.int64(134), np.int64(19), np.int64(5), np.int64(82), np.int64(3), np.int64(127), np.int64(20)]</t>
   </si>
 </sst>
 </file>
@@ -660,82 +660,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Значения</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> метрики </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>rel_ind </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t>при разных </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>N </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t>возвращаемых чанков</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -745,7 +670,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ds1</c:v>
+            <c:v>new_ds1</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -759,44 +684,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$E$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>acc_1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>acc_2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>acc_3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>acc_4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>acc_5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>acc_6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>acc_7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>acc_8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>acc_9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>acc_10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$E$12:$N$12</c:f>
@@ -804,7 +691,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.6</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -839,7 +726,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-36BE-44A4-887B-1FE6C5B7BDF7}"/>
+              <c16:uniqueId val="{00000000-E836-4CC7-B127-300474E5E987}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -847,7 +734,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>ds2</c:v>
+            <c:v>new_ds2</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -880,10 +767,10 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.9</c:v>
@@ -903,7 +790,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-36BE-44A4-887B-1FE6C5B7BDF7}"/>
+              <c16:uniqueId val="{00000002-E836-4CC7-B127-300474E5E987}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -911,7 +798,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>ds3</c:v>
+            <c:v>new_ds3</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -932,22 +819,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.6</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.9</c:v>
@@ -967,7 +854,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-36BE-44A4-887B-1FE6C5B7BDF7}"/>
+              <c16:uniqueId val="{00000003-E836-4CC7-B127-300474E5E987}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -975,7 +862,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>ds4</c:v>
+            <c:v>new_ds4</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -996,34 +883,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0.61904761904761907</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.7142857142857143</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.76190476190476186</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.8571428571428571</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8571428571428571</c:v>
+                  <c:v>0.76190476190476186</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8571428571428571</c:v>
+                  <c:v>0.90476190476190477</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.90476190476190477</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8571428571428571</c:v>
+                  <c:v>0.90476190476190477</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.90476190476190477</c:v>
+                  <c:v>0.95238095238095233</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.90476190476190477</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.90476190476190477</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1031,7 +918,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-36BE-44A4-887B-1FE6C5B7BDF7}"/>
+              <c16:uniqueId val="{00000004-E836-4CC7-B127-300474E5E987}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1044,17 +931,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="886048895"/>
-        <c:axId val="890236735"/>
+        <c:axId val="1375531599"/>
+        <c:axId val="1375530351"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="886048895"/>
+        <c:axId val="1375531599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1091,7 +977,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="890236735"/>
+        <c:crossAx val="1375530351"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1099,7 +985,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="890236735"/>
+        <c:axId val="1375530351"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1150,7 +1036,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="886048895"/>
+        <c:crossAx val="1375531599"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1797,23 +1683,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>481011</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73F5F81A-C645-4FF6-952B-77CB0CA6B1BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9763C40-D36C-4E1D-93D2-BA94806EA100}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2119,10 +2005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2185,7 +2071,7 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2614,7 +2500,7 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E12">
         <f>AVERAGE(E2:E11)</f>
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="F12">
         <f t="shared" ref="F12:N12" si="0">AVERAGE(F2:F11)</f>
@@ -2899,10 +2785,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -3099,39 +2985,39 @@
         <v>0.8</v>
       </c>
       <c r="F23">
-        <f t="shared" ref="F23" si="1">AVERAGE(F13:F22)</f>
+        <f t="shared" ref="F23:N23" si="1">AVERAGE(F13:F22)</f>
         <v>0.8</v>
       </c>
       <c r="G23">
-        <f t="shared" ref="G23" si="2">AVERAGE(G13:G22)</f>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="H23">
-        <f t="shared" ref="H23" si="3">AVERAGE(H13:H22)</f>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="I23">
-        <f t="shared" ref="I23" si="4">AVERAGE(I13:I22)</f>
-        <v>0.8</v>
+        <f t="shared" si="1"/>
+        <v>0.9</v>
       </c>
       <c r="J23">
-        <f t="shared" ref="J23" si="5">AVERAGE(J13:J22)</f>
-        <v>0.8</v>
+        <f t="shared" si="1"/>
+        <v>0.9</v>
       </c>
       <c r="K23">
-        <f t="shared" ref="K23" si="6">AVERAGE(K13:K22)</f>
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
       <c r="L23">
-        <f t="shared" ref="L23" si="7">AVERAGE(L13:L22)</f>
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
       <c r="M23">
-        <f t="shared" ref="M23" si="8">AVERAGE(M13:M22)</f>
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
       <c r="N23">
-        <f t="shared" ref="N23" si="9">AVERAGE(N13:N22)</f>
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
     </row>
@@ -3193,7 +3079,7 @@
         <v>84</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -3457,22 +3343,22 @@
         <v>102</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -3545,7 +3431,7 @@
         <v>108</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -3578,42 +3464,42 @@
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E34">
         <f>AVERAGE(E24:E33)</f>
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="F34" si="10">AVERAGE(F24:F33)</f>
-        <v>0.8</v>
+        <f t="shared" ref="F34:N34" si="2">AVERAGE(F24:F33)</f>
+        <v>0.9</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G34" si="11">AVERAGE(G24:G33)</f>
-        <v>0.8</v>
+        <f t="shared" si="2"/>
+        <v>0.9</v>
       </c>
       <c r="H34">
-        <f t="shared" ref="H34" si="12">AVERAGE(H24:H33)</f>
-        <v>0.8</v>
+        <f t="shared" si="2"/>
+        <v>0.9</v>
       </c>
       <c r="I34">
-        <f t="shared" ref="I34" si="13">AVERAGE(I24:I33)</f>
-        <v>0.8</v>
+        <f t="shared" si="2"/>
+        <v>0.9</v>
       </c>
       <c r="J34">
-        <f t="shared" ref="J34" si="14">AVERAGE(J24:J33)</f>
-        <v>0.8</v>
+        <f t="shared" si="2"/>
+        <v>0.9</v>
       </c>
       <c r="K34">
-        <f t="shared" ref="K34" si="15">AVERAGE(K24:K33)</f>
+        <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
       <c r="L34">
-        <f t="shared" ref="L34" si="16">AVERAGE(L24:L33)</f>
+        <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
       <c r="M34">
-        <f t="shared" ref="M34" si="17">AVERAGE(M24:M33)</f>
+        <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
       <c r="N34">
-        <f t="shared" ref="N34" si="18">AVERAGE(N24:N33)</f>
+        <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
     </row>
@@ -3687,22 +3573,22 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -3939,16 +3825,16 @@
         <v>130</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -3995,22 +3881,22 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -4042,13 +3928,13 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44">
         <v>1</v>
@@ -4291,25 +4177,25 @@
         <v>160</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -4467,10 +4353,10 @@
         <v>176</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -4485,7 +4371,7 @@
         <v>1</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54">
         <v>1</v>
@@ -4511,7 +4397,7 @@
         <v>179</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -4544,43 +4430,85 @@
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E56">
         <f>AVERAGE(E35:E55)</f>
+        <v>0.61904761904761907</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ref="F56:N56" si="3">AVERAGE(F35:F55)</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="F56">
-        <f t="shared" ref="F56:N56" si="19">AVERAGE(F35:F55)</f>
+      <c r="G56">
+        <f t="shared" si="3"/>
         <v>0.76190476190476186</v>
       </c>
-      <c r="G56">
-        <f t="shared" si="19"/>
-        <v>0.8571428571428571</v>
-      </c>
       <c r="H56">
-        <f t="shared" si="19"/>
-        <v>0.8571428571428571</v>
+        <f t="shared" si="3"/>
+        <v>0.76190476190476186</v>
       </c>
       <c r="I56">
-        <f t="shared" si="19"/>
-        <v>0.8571428571428571</v>
+        <f t="shared" si="3"/>
+        <v>0.90476190476190477</v>
       </c>
       <c r="J56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0.90476190476190477</v>
       </c>
       <c r="K56">
-        <f t="shared" si="19"/>
-        <v>0.8571428571428571</v>
+        <f t="shared" si="3"/>
+        <v>0.90476190476190477</v>
       </c>
       <c r="L56">
-        <f t="shared" si="19"/>
-        <v>0.90476190476190477</v>
+        <f t="shared" si="3"/>
+        <v>0.95238095238095233</v>
       </c>
       <c r="M56">
-        <f t="shared" si="19"/>
-        <v>0.90476190476190477</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="N56">
-        <f t="shared" si="19"/>
-        <v>0.90476190476190477</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <f>AVERAGE(E34,E56,E23,E12)</f>
+        <v>0.7047619047619047</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ref="F58:N58" si="4">AVERAGE(F34,F56,F23,F12)</f>
+        <v>0.85357142857142865</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="4"/>
+        <v>0.86547619047619051</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="4"/>
+        <v>0.86547619047619051</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="4"/>
+        <v>0.92619047619047623</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="4"/>
+        <v>0.92619047619047623</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="4"/>
+        <v>0.92619047619047623</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="4"/>
+        <v>0.93809523809523809</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="4"/>
+        <v>0.95</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="4"/>
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
